--- a/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Hydrologic Design Input.xlsx
+++ b/AEMostofa/Meherpur WD Division/P1/Hydrologic  Design/Hydrologic Design Input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F75D10-E93A-4182-9AC0-5BE2FC4C6EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34027094-21CC-4D50-8E9F-AA5C71187BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Basin Area</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>ICM</t>
+  </si>
+  <si>
+    <t>FK1</t>
+  </si>
+  <si>
+    <t>Anonymous Khal</t>
   </si>
 </sst>
 </file>
@@ -152,13 +158,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +484,7 @@
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
@@ -579,6 +588,38 @@
         <v>0.03</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>340</v>
+      </c>
+      <c r="H4" s="1">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -589,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,7 +805,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
